--- a/Moja.xlsx
+++ b/Moja.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>JAPANESES</t>
   </si>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t>http://moja.hiho.jp/newmoja/vi/work/</t>
+  </si>
+  <si>
+    <t>Ả Rập</t>
+  </si>
+  <si>
+    <t>http://moja.hiho.jp/newmoja/ap/</t>
+  </si>
+  <si>
+    <t>http://moja.hiho.jp/newmoja/ap/about-us/</t>
+  </si>
+  <si>
+    <t>http://moja.hiho.jp/newmoja/ap/blog/</t>
+  </si>
+  <si>
+    <t>http://moja.hiho.jp/newmoja/ap/our-service/</t>
+  </si>
+  <si>
+    <t>http://moja.hiho.jp/newmoja/ap/new-designing-services/</t>
+  </si>
+  <si>
+    <t>http://moja.hiho.jp/newmoja/ap/contact/</t>
+  </si>
+  <si>
+    <t>http://moja.hiho.jp/newmoja/ap/work/</t>
   </si>
 </sst>
 </file>
@@ -328,6 +352,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -376,7 +403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,7 +438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,6 +878,70 @@
       </c>
       <c r="C27" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,6 +967,13 @@
     <hyperlink ref="C25" r:id="rId19"/>
     <hyperlink ref="C26" r:id="rId20"/>
     <hyperlink ref="C27" r:id="rId21"/>
+    <hyperlink ref="C30" r:id="rId22" display="http://moja.hiho.jp/newmoja/vi/"/>
+    <hyperlink ref="C31" r:id="rId23" display="http://moja.hiho.jp/newmoja/vi/about-us/"/>
+    <hyperlink ref="C32" r:id="rId24" display="http://moja.hiho.jp/newmoja/vi/blog/"/>
+    <hyperlink ref="C33" r:id="rId25" display="http://moja.hiho.jp/newmoja/vi/our-service/"/>
+    <hyperlink ref="C34" r:id="rId26" display="http://moja.hiho.jp/newmoja/vi/new-designing-services/"/>
+    <hyperlink ref="C35" r:id="rId27" display="http://moja.hiho.jp/newmoja/vi/contact/"/>
+    <hyperlink ref="C36" r:id="rId28" display="http://moja.hiho.jp/newmoja/vi/work/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
